--- a/Datos/Database by set/Set with text box/Xlsx sets/Legions Promos (PLGN).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Legions Promos (PLGN).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,42 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Feral Throwback</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{4}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Amplify 2 (As this creature enters the battlefield, put two +1/+1 counters on it for each Beast card you reveal in your hand.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Provoke (Whenever this creature attacks, you may have target creature defending player controls untap and block it if able.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3/3</t>
+          <t>('Feral Throwback', ['{4}{G}{G}', 'Creature — Beast', 'Amplify 2 (As this creature enters the battlefield, put two +1/+1 counters on it for each Beast card you reveal in your hand.)', 'Provoke (Whenever this creature attacks, you may have target creature defending player controls untap and block it if able.)', '3/3'])</t>
         </is>
       </c>
     </row>
